--- a/R/analysis/data/Pt_02_Experimental.xlsx
+++ b/R/analysis/data/Pt_02_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>0.58</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>0.52</v>
@@ -578,7 +578,7 @@
         <v>1.77</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.14</v>
+        <v>4.14</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -635,16 +635,16 @@
         <v>1.81</v>
       </c>
       <c r="K4" t="n">
-        <v>5.23</v>
+        <v>0.63</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.44</v>
+        <v>3.69</v>
       </c>
       <c r="M4" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.75</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
         <v>0.53</v>
@@ -760,7 +760,7 @@
         <v>1.2</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -813,14 +813,14 @@
         <v>2.48</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>0.35</v>
       </c>
       <c r="L7" t="n">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>0.27</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>0.53</v>
@@ -936,7 +936,7 @@
         <v>1.6</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.62</v>
+        <v>3.62</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -989,14 +989,14 @@
         <v>2.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>0.62</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.44</v>
+        <v>3.18</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
         <v>0.27</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.21</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.86</v>
+        <v>2.86</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1161,16 +1161,16 @@
         <v>4.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.24</v>
+        <v>0.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.14</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0.71</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>1.26</v>
       </c>
       <c r="L15" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.41</v>
@@ -1341,16 +1341,16 @@
         <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>3.18</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>1.51</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M18" t="n">
         <v>0.71</v>
@@ -1521,16 +1521,16 @@
         <v>2.32</v>
       </c>
       <c r="K19" t="n">
-        <v>5.28</v>
+        <v>1.51</v>
       </c>
       <c r="L19" t="n">
-        <v>1.06</v>
+        <v>3.73</v>
       </c>
       <c r="M19" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N19" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>1.58</v>
@@ -1695,10 +1695,10 @@
         <v>2.44</v>
       </c>
       <c r="K22" t="n">
-        <v>4.77</v>
+        <v>0.53</v>
       </c>
       <c r="L22" t="n">
-        <v>0.38</v>
+        <v>3.38</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1809,10 +1809,10 @@
         <v>1.61</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>0.58</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
@@ -1867,10 +1867,10 @@
         <v>1.61</v>
       </c>
       <c r="K25" t="n">
-        <v>3.36</v>
+        <v>0.53</v>
       </c>
       <c r="L25" t="n">
-        <v>0.88</v>
+        <v>2.88</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1984,7 +1984,7 @@
         <v>0.5</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.73</v>
@@ -2039,10 +2039,10 @@
         <v>1.83</v>
       </c>
       <c r="K28" t="n">
-        <v>4.15</v>
+        <v>1.68</v>
       </c>
       <c r="L28" t="n">
-        <v>1.19</v>
+        <v>2.94</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
